--- a/resources/CheatSheetLinuxDataWrangling.xlsx
+++ b/resources/CheatSheetLinuxDataWrangling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Documents\CloudStation\Teaching\2022_09\ComputationalBiology\classroom_repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7964A44-BE21-4BE7-994E-AB808EFA1080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE598BF6-2BA6-4E0E-83D4-A816D44B4D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="-22410" windowWidth="13500" windowHeight="23985" xr2:uid="{8F0E7F28-6386-445E-9686-4296A332690C}"/>
+    <workbookView xWindow="-573" yWindow="7867" windowWidth="2673" windowHeight="3193" xr2:uid="{8F0E7F28-6386-445E-9686-4296A332690C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Data Manipulation With Unix/Linux BASH</t>
   </si>
@@ -180,6 +180,125 @@
     </r>
   </si>
   <si>
+    <t>Return lines that match regex pattern</t>
+  </si>
+  <si>
+    <r>
+      <t>grep "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>path/to/file</t>
+    </r>
+  </si>
+  <si>
+    <t>tail -n+2 path/to/file</t>
+  </si>
+  <si>
+    <t>Remove column names (first line) from any tidy file</t>
+  </si>
+  <si>
+    <t>Any and all characters repeated any number of times</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Any single character</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>wild cards (applies to file paths)</t>
+  </si>
+  <si>
+    <t>Regular expression patterns</t>
+  </si>
+  <si>
+    <t>0-infinite repeats of the previous character</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Match a special character like * or .</t>
+  </si>
+  <si>
+    <t>\*  or \.</t>
+  </si>
+  <si>
+    <t>Bind columns together into same tidy file</t>
+  </si>
+  <si>
+    <t>Find &amp; replace or remove text using regex pattern</t>
+  </si>
+  <si>
+    <t>Bind rows together into one tidy file</t>
+  </si>
+  <si>
+    <t>paste &lt;(commands) &lt;(commands) 
+paste file1 file2</t>
+  </si>
+  <si>
+    <t>cat &lt;(commands) &lt;(commands) 
+cat file1 file2</t>
+  </si>
+  <si>
+    <t>uniq path/to/file
+uniq -c path/to/file</t>
+  </si>
+  <si>
+    <t>wc -l path/to/file
+wc -c path/to/file</t>
+  </si>
+  <si>
+    <t>Keep only consecutive unique values, 
+  optionally also count the number of duplicates</t>
+  </si>
+  <si>
+    <t>Count the number of rows in a file, 
+  or the number of characters</t>
+  </si>
+  <si>
+    <t>Sort rows by column 2 alphabetically
+  Sort rows by col3 from lrg to sml numbers</t>
+  </si>
+  <si>
+    <t>sort -k2,2 path/to/file
+sort -nrk3,3 path/to/file</t>
+  </si>
+  <si>
+    <t>Remove/Keep Columns 1, 2, 3 and 6 in tsv file
+Remove/Keep Columns 1, 2, 3 and 6 in csv file</t>
+  </si>
+  <si>
     <r>
       <t>cut -f</t>
     </r>
@@ -211,28 +330,8 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>path/to/file</t>
-    </r>
-  </si>
-  <si>
-    <t>Remove/Keep Columns 1, 2, 3 and 6 in tsv file</t>
-  </si>
-  <si>
-    <t>Return lines that match regex pattern</t>
-  </si>
-  <si>
-    <r>
-      <t>grep "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Pattern</t>
+      <t xml:space="preserve">path/to/file
+</t>
     </r>
     <r>
       <rPr>
@@ -242,69 +341,38 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>path/to/file</t>
-    </r>
-  </si>
-  <si>
-    <t>tail -n+2 path/to/file</t>
-  </si>
-  <si>
-    <t>Remove column names (first line) from any tidy file</t>
-  </si>
-  <si>
-    <t>Any and all characters repeated any number of times</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Any single character</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>wild cards (applies to file paths)</t>
-  </si>
-  <si>
-    <t>Regular expression patterns</t>
-  </si>
-  <si>
-    <t>0-infinite repeats of the previous character</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Match a special character like * or .</t>
-  </si>
-  <si>
-    <t>\*  or \.</t>
-  </si>
-  <si>
-    <t>Bind columns together into same tidy file</t>
-  </si>
-  <si>
-    <t>Bind rows together into same tidy file</t>
-  </si>
-  <si>
-    <t>cat &lt;(commands) &lt;(commands) or cat file1 file2</t>
-  </si>
-  <si>
-    <t>paste &lt;(commands) &lt;(commands) or paste file1 file2</t>
-  </si>
-  <si>
-    <t>Find &amp; replace or remove text using regex pattern</t>
+      <t>cut -d</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1-3,6 path/to/file</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -360,10 +428,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,140 +753,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B3630A-66D1-4C3E-AADF-8EB1CB91212C}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.8203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.05859375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CheatSheetLinuxDataWrangling.xlsx
+++ b/resources/CheatSheetLinuxDataWrangling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Documents\CloudStation\Teaching\2022_09\ComputationalBiology\classroom_repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE598BF6-2BA6-4E0E-83D4-A816D44B4D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E683F2C-1628-4A70-9B2D-4210BE82ED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-573" yWindow="7867" windowWidth="2673" windowHeight="3193" xr2:uid="{8F0E7F28-6386-445E-9686-4296A332690C}"/>
+    <workbookView xWindow="1080" yWindow="-93" windowWidth="24613" windowHeight="14586" xr2:uid="{8F0E7F28-6386-445E-9686-4296A332690C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Data Manipulation With Unix/Linux BASH</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Convert a FASTA file to tidy</t>
-  </si>
-  <si>
     <t>Modify column delimiters (aka field separators)</t>
   </si>
   <si>
@@ -149,78 +146,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>paste - -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>path/to/file</t>
-    </r>
-  </si>
-  <si>
     <t>Return lines that match regex pattern</t>
   </si>
   <si>
-    <r>
-      <t>grep "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>path/to/file</t>
-    </r>
-  </si>
-  <si>
-    <t>tail -n+2 path/to/file</t>
-  </si>
-  <si>
     <t>Remove column names (first line) from any tidy file</t>
   </si>
   <si>
@@ -258,25 +186,6 @@
   </si>
   <si>
     <t>Find &amp; replace or remove text using regex pattern</t>
-  </si>
-  <si>
-    <t>Bind rows together into one tidy file</t>
-  </si>
-  <si>
-    <t>paste &lt;(commands) &lt;(commands) 
-paste file1 file2</t>
-  </si>
-  <si>
-    <t>cat &lt;(commands) &lt;(commands) 
-cat file1 file2</t>
-  </si>
-  <si>
-    <t>uniq path/to/file
-uniq -c path/to/file</t>
-  </si>
-  <si>
-    <t>wc -l path/to/file
-wc -c path/to/file</t>
   </si>
   <si>
     <t>Keep only consecutive unique values, 
@@ -291,12 +200,162 @@
   Sort rows by col3 from lrg to sml numbers</t>
   </si>
   <si>
-    <t>sort -k2,2 path/to/file
-sort -nrk3,3 path/to/file</t>
-  </si>
-  <si>
-    <t>Remove/Keep Columns 1, 2, 3 and 6 in tsv file
-Remove/Keep Columns 1, 2, 3 and 6 in csv file</t>
+    <t>Wrangle Data Files</t>
+  </si>
+  <si>
+    <t>Bind rows together from two sources into one tidy file</t>
+  </si>
+  <si>
+    <r>
+      <t>cat &lt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) &lt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) 
+cat </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>paste &lt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) &lt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) 
+paste </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -330,7 +389,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">path/to/file
+      <t xml:space="preserve">file
 </t>
     </r>
     <r>
@@ -371,15 +430,354 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>1-3,6 path/to/file</t>
-    </r>
+      <t>1-3,6 file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>grep "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tail -n</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sort -k</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+sort -nrk3,3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uniq </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uniq -c </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wc -l </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+wc -c </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">path/to/file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the examples below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>paste - -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>paste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>- - - -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <t>Convert a FASTA file to tidy, row 1-2 become cols 1-2
+Convert a FASTQ file to tidy, rows 1-4 become cols 1-4</t>
+  </si>
+  <si>
+    <t>Keep Columns 1, 2, 3 and 6 in tsv file, remove the rest
+Keep Columns 1, 2, 3 and 6 in csv file, remove the rest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +805,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -437,6 +851,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,84 +1182,97 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.8203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.234375" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.05859375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="23.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
@@ -841,31 +1280,31 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
@@ -873,51 +1312,55 @@
     </row>
     <row r="17" spans="1:3" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/CheatSheetLinuxDataWrangling.xlsx
+++ b/resources/CheatSheetLinuxDataWrangling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Documents\CloudStation\Teaching\2022_09\ComputationalBiology\classroom_repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E683F2C-1628-4A70-9B2D-4210BE82ED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B762928F-5691-4806-BA61-3C1787A1FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-93" windowWidth="24613" windowHeight="14586" xr2:uid="{8F0E7F28-6386-445E-9686-4296A332690C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Data Manipulation With Unix/Linux BASH</t>
   </si>
@@ -164,12 +164,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>wild cards (applies to file paths)</t>
-  </si>
-  <si>
-    <t>Regular expression patterns</t>
-  </si>
-  <si>
     <t>0-infinite repeats of the previous character</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>Match a special character like * or .</t>
-  </si>
-  <si>
-    <t>\*  or \.</t>
   </si>
   <si>
     <t>Bind columns together into same tidy file</t>
@@ -765,19 +756,117 @@
     </r>
   </si>
   <si>
+    <t>Beginning of line  or End of line</t>
+  </si>
+  <si>
+    <t>Match any one of the following characters: a, b, c</t>
+  </si>
+  <si>
+    <t>[abc]</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Escape character, change meaning of special character</t>
+  </si>
+  <si>
+    <t>X=$((1+1))</t>
+  </si>
+  <si>
+    <t>add 1+1 and save to variable named X</t>
+  </si>
+  <si>
+    <t>subtract 1-1 and save to variable name Y</t>
+  </si>
+  <si>
+    <t>Y=$((10-5))</t>
+  </si>
+  <si>
+    <t>echo $((1+11-2))</t>
+  </si>
+  <si>
+    <t>1+11-2 and print to screen</t>
+  </si>
+  <si>
+    <t>do math</t>
+  </si>
+  <si>
+    <t>Use wild cards (applies to file paths)</t>
+  </si>
+  <si>
+    <t>Create regular expression search patterns</t>
+  </si>
+  <si>
+    <t>ls *.txt</t>
+  </si>
+  <si>
+    <t>List all files ending with ".txt"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">\*  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> \.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">^  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  $</t>
+    </r>
+  </si>
+  <si>
+    <t>Keep Columns 1, 2, 3 and 6 in tsv file, remove the rest
+  Keep Columns 1, 2, 3 and 6 in csv file, remove the rest</t>
+  </si>
+  <si>
     <t>Convert a FASTA file to tidy, row 1-2 become cols 1-2
-Convert a FASTQ file to tidy, rows 1-4 become cols 1-4</t>
-  </si>
-  <si>
-    <t>Keep Columns 1, 2, 3 and 6 in tsv file, remove the rest
-Keep Columns 1, 2, 3 and 6 in csv file, remove the rest</t>
+  Convert a FASTQ file to tidy, rows 1-4 become cols 1-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +896,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -821,6 +918,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -830,7 +934,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -838,31 +942,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,16 +1516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B3630A-66D1-4C3E-AADF-8EB1CB91212C}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="25.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.52734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.05859375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.9375" style="1"/>
   </cols>
@@ -1197,171 +1534,250 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43" x14ac:dyDescent="0.5">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C23" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.35" x14ac:dyDescent="0.5">
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>